--- a/seller/app/modules/product/template/electronics.xlsx
+++ b/seller/app/modules/product/template/electronics.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>productCode</t>
   </si>
@@ -19,6 +19,9 @@
     <t>productName</t>
   </si>
   <si>
+    <t>basePrice</t>
+  </si>
+  <si>
     <t>MRP</t>
   </si>
   <si>
@@ -70,27 +73,24 @@
     <t>returnWindow</t>
   </si>
   <si>
-    <t>isVegetarian</t>
-  </si>
-  <si>
     <t>manufacturerName</t>
   </si>
   <si>
     <t>manufacturedDate</t>
   </si>
   <si>
-    <t>nutritionalInfo</t>
-  </si>
-  <si>
-    <t>additiveInfo</t>
-  </si>
-  <si>
-    <t>instructions</t>
+    <t>packingDate</t>
   </si>
   <si>
     <t>isCancellable</t>
   </si>
   <si>
+    <t>cancelWindow</t>
+  </si>
+  <si>
+    <t>manufacturerOrganizationName</t>
+  </si>
+  <si>
     <t>longDescription</t>
   </si>
   <si>
@@ -103,24 +103,12 @@
     <t>images</t>
   </si>
   <si>
-    <t>manufacturerOrPackerName</t>
-  </si>
-  <si>
-    <t>manufacturerOrPackerAddress</t>
-  </si>
-  <si>
     <t>commonOrGenericNameOfCommodity</t>
   </si>
   <si>
     <t>monthYearOfManufacturePackingImport</t>
   </si>
   <si>
-    <t>importerFSSAILicenseNo</t>
-  </si>
-  <si>
-    <t>brandOwnerFSSAILicenseNo</t>
-  </si>
-  <si>
     <t>data import instructions</t>
   </si>
   <si>
@@ -139,39 +127,24 @@
     <t>1234</t>
   </si>
   <si>
-    <t>Kilogram</t>
-  </si>
-  <si>
-    <t>100 kg</t>
-  </si>
-  <si>
-    <t>12 cm</t>
-  </si>
-  <si>
-    <t>1 cm</t>
+    <t>Centemeter</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>PT30M</t>
-  </si>
-  <si>
-    <t>Parle</t>
-  </si>
-  <si>
-    <t>12/1/2023</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>info</t>
+    <t>parle</t>
+  </si>
+  <si>
+    <t>2023/11/05</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>jbl</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
@@ -181,10 +154,7 @@
     <t>IRCTC</t>
   </si>
   <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>11/23</t>
+    <t>2023/12/07</t>
   </si>
   <si>
     <t>1. images should be a public url accessible over internet
@@ -196,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -213,16 +183,27 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,18 +212,61 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -479,6 +503,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="20" max="20" width="16.13"/>
+    <col customWidth="1" min="21" max="21" width="29.63"/>
+    <col customWidth="1" min="27" max="27" width="22.88"/>
+    <col customWidth="1" min="28" max="28" width="29.25"/>
+  </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -487,7 +517,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -544,19 +574,19 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -580,159 +610,130 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="C2" s="6">
+        <v>400.0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>12345.0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="H2" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="J2" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="L2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3">
-        <v>12345.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="N2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="T2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="U2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="V2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="3">
+      <c r="W2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="14">
         <v>1.0</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="Z2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="AA2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="AB2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="AE2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AF2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="AG2" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="L2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(H2))&gt;0</formula>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
+      <formula1>"0,5,12,18,28"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S2 X2 AB2">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
       <formula1>"Mobile Phone,Smart Watch,Headset,Laptop,Desktop,Tablet,Keyboard,Monitor,Mouse,Power Bank"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2">
-      <formula1>"0,5,12,18,28"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R2 T2 Z2 AB2">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2">
       <formula1>"Kilogram,Grams,Meter,Centemeter"</formula1>
     </dataValidation>
   </dataValidations>
